--- a/BEMFSimulation/ExcelResults/PhaseVoltage1500.xlsx
+++ b/BEMFSimulation/ExcelResults/PhaseVoltage1500.xlsx
@@ -408,13 +408,13 @@
         <v>0.0001111111111111111</v>
       </c>
       <c r="B2">
-        <v>1.101393254071326</v>
+        <v>1.540673033116752</v>
       </c>
       <c r="C2">
-        <v>98.64165583764047</v>
+        <v>99.99914702352901</v>
       </c>
       <c r="D2">
-        <v>-103.8789753315093</v>
+        <v>-106.3716755732268</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -422,13 +422,13 @@
         <v>0.0002222222222222222</v>
       </c>
       <c r="B3">
-        <v>6.259852880028338</v>
+        <v>6.288607388656788</v>
       </c>
       <c r="C3">
-        <v>94.11990635155759</v>
+        <v>96.61015024619107</v>
       </c>
       <c r="D3">
-        <v>-102.6529929273802</v>
+        <v>-106.4244422346616</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -436,13 +436,13 @@
         <v>0.0003333333333333334</v>
       </c>
       <c r="B4">
-        <v>18.69854753753905</v>
+        <v>18.60570398110981</v>
       </c>
       <c r="C4">
-        <v>86.42778998523086</v>
+        <v>90.46077302178163</v>
       </c>
       <c r="D4">
-        <v>-98.47178152332397</v>
+        <v>-102.1025134259365</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -450,13 +450,13 @@
         <v>0.0004444444444444445</v>
       </c>
       <c r="B5">
-        <v>33.64167447096769</v>
+        <v>33.90812196206704</v>
       </c>
       <c r="C5">
-        <v>74.93020858502639</v>
+        <v>74.40196815138425</v>
       </c>
       <c r="D5">
-        <v>-95.15790111120526</v>
+        <v>-96.10526568841627</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -464,13 +464,13 @@
         <v>0.0005555555555555556</v>
       </c>
       <c r="B6">
-        <v>42.4135843873897</v>
+        <v>44.29624711608911</v>
       </c>
       <c r="C6">
-        <v>62.31394433316137</v>
+        <v>63.48766376161385</v>
       </c>
       <c r="D6">
-        <v>-97.81061646966853</v>
+        <v>-101.6234726775015</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -478,13 +478,13 @@
         <v>0.0006666666666666666</v>
       </c>
       <c r="B7">
-        <v>45.89228252322805</v>
+        <v>47.0514715432601</v>
       </c>
       <c r="C7">
-        <v>54.76638801762864</v>
+        <v>56.73193381580572</v>
       </c>
       <c r="D7">
-        <v>-100.2769070962166</v>
+        <v>-103.6079677475429</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -492,13 +492,13 @@
         <v>0.0007777777777777777</v>
       </c>
       <c r="B8">
-        <v>49.7515541329655</v>
+        <v>49.80429629814667</v>
       </c>
       <c r="C8">
-        <v>52.17026687186316</v>
+        <v>53.42504490483596</v>
       </c>
       <c r="D8">
-        <v>-103.5241435057184</v>
+        <v>-104.6250912835825</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -506,13 +506,13 @@
         <v>0.0008888888888888888</v>
       </c>
       <c r="B9">
-        <v>52.21222906414432</v>
+        <v>53.1004279623054</v>
       </c>
       <c r="C9">
-        <v>49.9138665843919</v>
+        <v>50.32102764325079</v>
       </c>
       <c r="D9">
-        <v>-103.8888206462839</v>
+        <v>-104.8294804805452</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -520,13 +520,13 @@
         <v>0.001</v>
       </c>
       <c r="B10">
-        <v>54.70516991834706</v>
+        <v>56.50156409510346</v>
       </c>
       <c r="C10">
-        <v>45.94922274898072</v>
+        <v>46.67411171605275</v>
       </c>
       <c r="D10">
-        <v>-100.6199572611596</v>
+        <v>-102.8466533417951</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -534,13 +534,13 @@
         <v>0.001111111111111111</v>
       </c>
       <c r="B11">
-        <v>62.18406566539427</v>
+        <v>64.31035847348804</v>
       </c>
       <c r="C11">
-        <v>42.54460866101972</v>
+        <v>44.58088896137038</v>
       </c>
       <c r="D11">
-        <v>-98.18984924820086</v>
+        <v>-103.1906953743686</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -548,13 +548,13 @@
         <v>0.001222222222222222</v>
       </c>
       <c r="B12">
-        <v>74.88300745029974</v>
+        <v>75.59770616996954</v>
       </c>
       <c r="C12">
-        <v>33.77053370590738</v>
+        <v>33.30319434487549</v>
       </c>
       <c r="D12">
-        <v>-95.4600831167957</v>
+        <v>-97.2662967843584</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -562,13 +562,13 @@
         <v>0.001333333333333333</v>
       </c>
       <c r="B13">
-        <v>86.2565244880211</v>
+        <v>88.52524886186215</v>
       </c>
       <c r="C13">
-        <v>18.95205142522843</v>
+        <v>18.43280033536156</v>
       </c>
       <c r="D13">
-        <v>-98.57942346547895</v>
+        <v>-100.7188476356042</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -576,13 +576,13 @@
         <v>0.001444444444444444</v>
       </c>
       <c r="B14">
-        <v>94.07203291550294</v>
+        <v>97.71939325013999</v>
       </c>
       <c r="C14">
-        <v>6.427516841444381</v>
+        <v>6.338087508598114</v>
       </c>
       <c r="D14">
-        <v>-102.4804192206267</v>
+        <v>-106.3069503239443</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -590,13 +590,13 @@
         <v>0.001555555555555555</v>
       </c>
       <c r="B15">
-        <v>98.46415496343248</v>
+        <v>99.45668538397439</v>
       </c>
       <c r="C15">
-        <v>1.201057857441762</v>
+        <v>1.680339512290171</v>
       </c>
       <c r="D15">
-        <v>-103.4613330274336</v>
+        <v>-105.6018472045771</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -604,13 +604,13 @@
         <v>0.001666666666666667</v>
       </c>
       <c r="B16">
-        <v>103.5913569856605</v>
+        <v>104.9074242523733</v>
       </c>
       <c r="C16">
-        <v>-0.003218003598093322</v>
+        <v>0.0291073579403861</v>
       </c>
       <c r="D16">
-        <v>-103.4323328245964</v>
+        <v>-105.2653484487462</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -618,13 +618,13 @@
         <v>0.001777777777777778</v>
       </c>
       <c r="B17">
-        <v>103.619169268807</v>
+        <v>105.8009731152228</v>
       </c>
       <c r="C17">
-        <v>-1.115725386773209</v>
+        <v>-1.476856663208889</v>
       </c>
       <c r="D17">
-        <v>-98.68589472263075</v>
+        <v>-100.0177784904426</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -632,13 +632,13 @@
         <v>0.001888888888888889</v>
       </c>
       <c r="B18">
-        <v>102.4200456709131</v>
+        <v>106.5859475202925</v>
       </c>
       <c r="C18">
-        <v>-6.189508810671374</v>
+        <v>-6.129763571253652</v>
       </c>
       <c r="D18">
-        <v>-94.10512904526871</v>
+        <v>-96.83316295093503</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -646,13 +646,13 @@
         <v>0.002</v>
       </c>
       <c r="B19">
-        <v>98.73162316924058</v>
+        <v>102.6850626497418</v>
       </c>
       <c r="C19">
-        <v>-18.61607293834996</v>
+        <v>-18.50939842690198</v>
       </c>
       <c r="D19">
-        <v>-86.58694272164811</v>
+        <v>-90.41976185021936</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -660,13 +660,13 @@
         <v>0.002111111111111111</v>
       </c>
       <c r="B20">
-        <v>95.50721045551143</v>
+        <v>96.86683828444311</v>
       </c>
       <c r="C20">
-        <v>-33.65922328636528</v>
+        <v>-33.5744334364782</v>
       </c>
       <c r="D20">
-        <v>-74.98604835915786</v>
+        <v>-74.49365953761354</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -674,13 +674,13 @@
         <v>0.002222222222222223</v>
       </c>
       <c r="B21">
-        <v>98.07931028551924</v>
+        <v>102.2210977956698</v>
       </c>
       <c r="C21">
-        <v>-42.48483407221154</v>
+        <v>-44.22068372634959</v>
       </c>
       <c r="D21">
-        <v>-62.32074231597753</v>
+        <v>-63.7795165908632</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -688,13 +688,13 @@
         <v>0.002333333333333334</v>
       </c>
       <c r="B22">
-        <v>100.4746471245051</v>
+        <v>103.5647440562672</v>
       </c>
       <c r="C22">
-        <v>-45.88176080417752</v>
+        <v>-47.11578354820264</v>
       </c>
       <c r="D22">
-        <v>-54.85980651978733</v>
+        <v>-56.9873167079394</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -702,13 +702,13 @@
         <v>0.002444444444444445</v>
       </c>
       <c r="B23">
-        <v>103.5665818311695</v>
+        <v>104.6281383475052</v>
       </c>
       <c r="C23">
-        <v>-49.74853454623484</v>
+        <v>-50.10113115919916</v>
       </c>
       <c r="D23">
-        <v>-52.2403921509687</v>
+        <v>-53.39966421920444</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -716,13 +716,13 @@
         <v>0.002555555555555557</v>
       </c>
       <c r="B24">
-        <v>103.7768483394433</v>
+        <v>105.2722552728701</v>
       </c>
       <c r="C24">
-        <v>-52.22212128526832</v>
+        <v>-53.39987465038504</v>
       </c>
       <c r="D24">
-        <v>-49.8814282761314</v>
+        <v>-50.21564256893096</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -730,13 +730,13 @@
         <v>0.002666666666666668</v>
       </c>
       <c r="B25">
-        <v>100.7499752697426</v>
+        <v>103.229017835408</v>
       </c>
       <c r="C25">
-        <v>-54.78281300810736</v>
+        <v>-56.4952332604967</v>
       </c>
       <c r="D25">
-        <v>-45.90336303396624</v>
+        <v>-46.70690872519562</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -744,13 +744,13 @@
         <v>0.002777777777777779</v>
       </c>
       <c r="B26">
-        <v>98.45307743620047</v>
+        <v>103.0832660086811</v>
       </c>
       <c r="C26">
-        <v>-62.24301975812762</v>
+        <v>-63.98543137440913</v>
       </c>
       <c r="D26">
-        <v>-42.56919958844932</v>
+        <v>-44.72320772778198</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -758,13 +758,13 @@
         <v>0.00288888888888889</v>
       </c>
       <c r="B27">
-        <v>95.80730516167087</v>
+        <v>96.78032964261668</v>
       </c>
       <c r="C27">
-        <v>-74.91242211272278</v>
+        <v>-75.353051504745</v>
       </c>
       <c r="D27">
-        <v>-33.81313845741213</v>
+        <v>-33.72649903621252</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -772,13 +772,13 @@
         <v>0.003000000000000002</v>
       </c>
       <c r="B28">
-        <v>99.04331906137253</v>
+        <v>100.7684465515455</v>
       </c>
       <c r="C28">
-        <v>-86.44140976039191</v>
+        <v>-88.76635790753166</v>
       </c>
       <c r="D28">
-        <v>-18.92304585331736</v>
+        <v>-18.552049713303</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -786,13 +786,13 @@
         <v>0.003111111111111113</v>
       </c>
       <c r="B29">
-        <v>102.6872655749514</v>
+        <v>106.9112901321975</v>
       </c>
       <c r="C29">
-        <v>-94.22660388165164</v>
+        <v>-97.93925176268453</v>
       </c>
       <c r="D29">
-        <v>-6.358609895738748</v>
+        <v>-6.183527260481964</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -800,13 +800,13 @@
         <v>0.003222222222222224</v>
       </c>
       <c r="B30">
-        <v>103.4073859731764</v>
+        <v>106.165927710495</v>
       </c>
       <c r="C30">
-        <v>-98.51689697431728</v>
+        <v>-99.59685021224699</v>
       </c>
       <c r="D30">
-        <v>-1.137413698767548</v>
+        <v>-1.530640593090521</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -814,13 +814,13 @@
         <v>0.003333333333333336</v>
       </c>
       <c r="B31">
-        <v>103.3394983511768</v>
+        <v>104.91935966124</v>
       </c>
       <c r="C31">
-        <v>-103.5218274869165</v>
+        <v>-104.8118469243036</v>
       </c>
       <c r="D31">
-        <v>0.03725572383594944</v>
+        <v>0.03071808021178069</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -828,13 +828,13 @@
         <v>0.003444444444444447</v>
       </c>
       <c r="B32">
-        <v>98.54112454192715</v>
+        <v>98.96512299847559</v>
       </c>
       <c r="C32">
-        <v>-103.6100063478402</v>
+        <v>-105.578192823792</v>
       </c>
       <c r="D32">
-        <v>1.128139705754011</v>
+        <v>1.40411315986376</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -842,13 +842,13 @@
         <v>0.003555555555555558</v>
       </c>
       <c r="B33">
-        <v>93.9478084027097</v>
+        <v>96.35005669670332</v>
       </c>
       <c r="C33">
-        <v>-102.4656790736474</v>
+        <v>-106.4921630768713</v>
       </c>
       <c r="D33">
-        <v>6.203027417850809</v>
+        <v>6.011147545694414</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -856,13 +856,13 @@
         <v>0.00366666666666667</v>
       </c>
       <c r="B34">
-        <v>86.4553753804252</v>
+        <v>90.73961597450115</v>
       </c>
       <c r="C34">
-        <v>-98.7107000367839</v>
+        <v>-102.5171746866704</v>
       </c>
       <c r="D34">
-        <v>18.57855866878144</v>
+        <v>18.49976632945442</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -870,13 +870,13 @@
         <v>0.003777777777777781</v>
       </c>
       <c r="B35">
-        <v>74.95241508369394</v>
+        <v>74.62294255784803</v>
       </c>
       <c r="C35">
-        <v>-95.43132726898527</v>
+        <v>-96.3463492511283</v>
       </c>
       <c r="D35">
-        <v>33.61290396174319</v>
+        <v>33.61933668746819</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -884,13 +884,13 @@
         <v>0.003888888888888892</v>
       </c>
       <c r="B36">
-        <v>62.36204790739602</v>
+        <v>63.43077049559157</v>
       </c>
       <c r="C36">
-        <v>-97.99713354932911</v>
+        <v>-101.8154592145797</v>
       </c>
       <c r="D36">
-        <v>42.44285846433849</v>
+        <v>44.16994187393393</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -898,13 +898,13 @@
         <v>0.004000000000000004</v>
       </c>
       <c r="B37">
-        <v>54.8552069474156</v>
+        <v>56.69141530306155</v>
       </c>
       <c r="C37">
-        <v>-100.5398439370179</v>
+        <v>-103.6545376534927</v>
       </c>
       <c r="D37">
-        <v>45.91294343337429</v>
+        <v>47.16379504532333</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -912,13 +912,13 @@
         <v>0.004111111111111115</v>
       </c>
       <c r="B38">
-        <v>52.20947208300993</v>
+        <v>53.42410686976197</v>
       </c>
       <c r="C38">
-        <v>-103.6410764261898</v>
+        <v>-104.5997184280147</v>
       </c>
       <c r="D38">
-        <v>49.77771581895207</v>
+        <v>50.0060147275632</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -926,13 +926,13 @@
         <v>0.004222222222222226</v>
       </c>
       <c r="B39">
-        <v>49.91778973250077</v>
+        <v>50.44878937132617</v>
       </c>
       <c r="C39">
-        <v>-103.9411316593153</v>
+        <v>-105.0665557124645</v>
       </c>
       <c r="D39">
-        <v>52.32272025515266</v>
+        <v>53.32839965274498</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -940,13 +940,13 @@
         <v>0.004333333333333337</v>
       </c>
       <c r="B40">
-        <v>45.89425580173265</v>
+        <v>46.77653741723041</v>
       </c>
       <c r="C40">
-        <v>-100.5692009930788</v>
+        <v>-103.0503674677787</v>
       </c>
       <c r="D40">
-        <v>54.74481923344096</v>
+        <v>56.48417953465248</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -954,13 +954,13 @@
         <v>0.004444444444444449</v>
       </c>
       <c r="B41">
-        <v>42.55926044317501</v>
+        <v>44.76710030678753</v>
       </c>
       <c r="C41">
-        <v>-98.23967352215428</v>
+        <v>-103.5028346031465</v>
       </c>
       <c r="D41">
-        <v>62.20308402376867</v>
+        <v>64.28070744169089</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -968,13 +968,13 @@
         <v>0.00455555555555556</v>
       </c>
       <c r="B42">
-        <v>33.83743503048159</v>
+        <v>33.46623363850443</v>
       </c>
       <c r="C42">
-        <v>-95.58236544153412</v>
+        <v>-97.12310701530305</v>
       </c>
       <c r="D42">
-        <v>74.90177260146231</v>
+        <v>75.63700195466032</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -982,13 +982,13 @@
         <v>0.004666666666666671</v>
       </c>
       <c r="B43">
-        <v>19.00946223203548</v>
+        <v>18.43349792537106</v>
       </c>
       <c r="C43">
-        <v>-98.67327529296927</v>
+        <v>-100.9233121870589</v>
       </c>
       <c r="D43">
-        <v>86.44755723724261</v>
+        <v>88.90298383042747</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -996,13 +996,13 @@
         <v>0.004777777777777783</v>
       </c>
       <c r="B44">
-        <v>6.449005843888106</v>
+        <v>6.168930346796276</v>
       </c>
       <c r="C44">
-        <v>-102.5607030149444</v>
+        <v>-106.8665708504016</v>
       </c>
       <c r="D44">
-        <v>94.33255058878277</v>
+        <v>97.8735150604073</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1010,13 +1010,13 @@
         <v>0.004888888888888894</v>
       </c>
       <c r="B45">
-        <v>1.204089111135315</v>
+        <v>1.552182201846053</v>
       </c>
       <c r="C45">
-        <v>-103.5710095021398</v>
+        <v>-105.6436460660857</v>
       </c>
       <c r="D45">
-        <v>98.76046163656449</v>
+        <v>99.04106552336641</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1024,13 +1024,13 @@
         <v>0.005000000000000005</v>
       </c>
       <c r="B46">
-        <v>0.01455446655146408</v>
+        <v>0.1016326866313394</v>
       </c>
       <c r="C46">
-        <v>-103.5914441544963</v>
+        <v>-105.4993440500417</v>
       </c>
       <c r="D46">
-        <v>103.8731093204035</v>
+        <v>105.527161209681</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1038,13 +1038,13 @@
         <v>0.005111111111111117</v>
       </c>
       <c r="B47">
-        <v>-1.105122921556678</v>
+        <v>-1.544839104753171</v>
       </c>
       <c r="C47">
-        <v>-98.63219224860205</v>
+        <v>-99.99251420913784</v>
       </c>
       <c r="D47">
-        <v>103.8764391524771</v>
+        <v>106.3717268800458</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1052,13 +1052,13 @@
         <v>0.005222222222222228</v>
       </c>
       <c r="B48">
-        <v>-6.271759010347988</v>
+        <v>-6.300166503839313</v>
       </c>
       <c r="C48">
-        <v>-94.11483091530643</v>
+        <v>-96.60976278210786</v>
       </c>
       <c r="D48">
-        <v>102.6511362837351</v>
+        <v>106.4246659732711</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1066,13 +1066,13 @@
         <v>0.005333333333333339</v>
       </c>
       <c r="B49">
-        <v>-18.72186580595123</v>
+        <v>-18.62885247464578</v>
       </c>
       <c r="C49">
-        <v>-86.4120998756479</v>
+        <v>-90.43733142054047</v>
       </c>
       <c r="D49">
-        <v>98.46351245258383</v>
+        <v>102.0891596151982</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1080,13 +1080,13 @@
         <v>0.005444444444444451</v>
       </c>
       <c r="B50">
-        <v>-33.65862456158777</v>
+        <v>-33.9270861578058</v>
       </c>
       <c r="C50">
-        <v>-74.9117783376559</v>
+        <v>-74.38372556161212</v>
       </c>
       <c r="D50">
-        <v>95.15786553669636</v>
+        <v>96.1070017377773</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1094,13 +1094,13 @@
         <v>0.005555555555555562</v>
       </c>
       <c r="B51">
-        <v>-42.42203770134678</v>
+        <v>-44.3061231699151</v>
       </c>
       <c r="C51">
-        <v>-62.29879500087573</v>
+        <v>-63.47456496292126</v>
       </c>
       <c r="D51">
-        <v>97.81594978939916</v>
+        <v>101.6319965687341</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1108,13 +1108,13 @@
         <v>0.005666666666666673</v>
       </c>
       <c r="B52">
-        <v>-45.89624933766398</v>
+        <v>-47.05209860865825</v>
       </c>
       <c r="C52">
-        <v>-54.75940416171232</v>
+        <v>-56.7247669347852</v>
       </c>
       <c r="D52">
-        <v>100.2799371903428</v>
+        <v>103.6063176192949</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1122,13 +1122,13 @@
         <v>0.005777777777777784</v>
       </c>
       <c r="B53">
-        <v>-49.75730863748015</v>
+        <v>-49.81072296058035</v>
       </c>
       <c r="C53">
-        <v>-52.16853307039876</v>
+        <v>-53.4229379225544</v>
       </c>
       <c r="D53">
-        <v>103.5288424385381</v>
+        <v>104.6295854892641</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1136,13 +1136,13 @@
         <v>0.005888888888888896</v>
       </c>
       <c r="B54">
-        <v>-52.21425516962847</v>
+        <v>-53.10365362037876</v>
       </c>
       <c r="C54">
-        <v>-49.90854624195004</v>
+        <v>-50.31448875144486</v>
       </c>
       <c r="D54">
-        <v>103.8851215612022</v>
+        <v>104.8260892150343</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1150,13 +1150,13 @@
         <v>0.006000000000000007</v>
       </c>
       <c r="B55">
-        <v>-54.71201591684965</v>
+        <v>-56.50918381122174</v>
       </c>
       <c r="C55">
-        <v>-45.94496186777685</v>
+        <v>-46.6695779696965</v>
       </c>
       <c r="D55">
-        <v>100.6165766534935</v>
+        <v>102.84468308308</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1164,13 +1164,13 @@
         <v>0.006111111111111118</v>
       </c>
       <c r="B56">
-        <v>-62.19873266695205</v>
+        <v>-64.3248562364665</v>
       </c>
       <c r="C56">
-        <v>-42.53608869561703</v>
+        <v>-44.57388261029212</v>
       </c>
       <c r="D56">
-        <v>98.18417769160065</v>
+        <v>103.1878458229801</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1178,13 +1178,13 @@
         <v>0.00622222222222223</v>
       </c>
       <c r="B57">
-        <v>-74.90179735164571</v>
+        <v>-75.61406531981744</v>
       </c>
       <c r="C57">
-        <v>-33.75383683572417</v>
+        <v>-33.28299697102501</v>
       </c>
       <c r="D57">
-        <v>95.46025439907211</v>
+        <v>97.26044736293316</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1192,13 +1192,13 @@
         <v>0.006333333333333341</v>
       </c>
       <c r="B58">
-        <v>-86.27164930644703</v>
+        <v>-88.54453105821197</v>
       </c>
       <c r="C58">
-        <v>-18.92860276352434</v>
+        <v>-18.41074021075744</v>
       </c>
       <c r="D58">
-        <v>98.58680509014079</v>
+        <v>100.7303218338204</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1206,13 +1206,13 @@
         <v>0.006444444444444452</v>
       </c>
       <c r="B59">
-        <v>-94.07854240548437</v>
+        <v>-97.72409673998811</v>
       </c>
       <c r="C59">
-        <v>-6.415651934378291</v>
+        <v>-6.326706145505928</v>
       </c>
       <c r="D59">
-        <v>102.483396368712</v>
+        <v>106.3094308054422</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1220,13 +1220,13 @@
         <v>0.006555555555555564</v>
       </c>
       <c r="B60">
-        <v>-98.47204111338442</v>
+        <v>-99.46277993679898</v>
       </c>
       <c r="C60">
-        <v>-1.197091703015379</v>
+        <v>-1.676335351178323</v>
       </c>
       <c r="D60">
-        <v>103.4619544902973</v>
+        <v>105.6009586372128</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1234,13 +1234,13 @@
         <v>0.006666666666666675</v>
       </c>
       <c r="B61">
-        <v>-103.5953593450078</v>
+        <v>-104.912947463259</v>
       </c>
       <c r="C61">
-        <v>0.003588297490392245</v>
+        <v>-0.02806852777995084</v>
       </c>
       <c r="D61">
-        <v>103.4292848480641</v>
+        <v>105.2607054324276</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1248,13 +1248,13 @@
         <v>0.006777777777777786</v>
       </c>
       <c r="B62">
-        <v>-103.6176437069869</v>
+        <v>-105.8010188935903</v>
       </c>
       <c r="C62">
-        <v>1.119510941646029</v>
+        <v>1.480560111796897</v>
       </c>
       <c r="D62">
-        <v>98.6776352620915</v>
+        <v>100.010741670555</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1262,13 +1262,13 @@
         <v>0.006888888888888898</v>
       </c>
       <c r="B63">
-        <v>-102.4174966706424</v>
+        <v>-106.587757398056</v>
       </c>
       <c r="C63">
-        <v>6.201275473938117</v>
+        <v>6.141423316086622</v>
       </c>
       <c r="D63">
-        <v>94.09917036542404</v>
+        <v>96.83339734550285</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1276,13 +1276,13 @@
         <v>0.007000000000000009</v>
       </c>
       <c r="B64">
-        <v>-98.72444873127799</v>
+        <v>-102.671902725246</v>
       </c>
       <c r="C64">
-        <v>18.63952944495303</v>
+        <v>18.53245062903894</v>
       </c>
       <c r="D64">
-        <v>86.57181291209803</v>
+        <v>90.39578896304586</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1290,13 +1290,13 @@
         <v>0.00711111111111112</v>
       </c>
       <c r="B65">
-        <v>-95.50694244680494</v>
+        <v>-96.86845946027424</v>
       </c>
       <c r="C65">
-        <v>33.67648485193894</v>
+        <v>33.59341886739184</v>
       </c>
       <c r="D65">
-        <v>74.96728320323734</v>
+        <v>74.47553743486782</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1304,13 +1304,13 @@
         <v>0.007222222222222231</v>
       </c>
       <c r="B66">
-        <v>-98.08426567242439</v>
+        <v>-102.2295835925674</v>
       </c>
       <c r="C66">
-        <v>42.49284348535851</v>
+        <v>44.2310778302172</v>
       </c>
       <c r="D66">
-        <v>62.30537743339278</v>
+        <v>63.76732420270141</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1318,13 +1318,13 @@
         <v>0.007333333333333343</v>
       </c>
       <c r="B67">
-        <v>-100.4780102285579</v>
+        <v>-103.5627279387515</v>
       </c>
       <c r="C67">
-        <v>45.88609328128609</v>
+        <v>47.11706860780263</v>
       </c>
       <c r="D67">
-        <v>54.85326376215716</v>
+        <v>56.97991220723286</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1332,13 +1332,13 @@
         <v>0.007444444444444454</v>
       </c>
       <c r="B68">
-        <v>-103.5707842396334</v>
+        <v>-104.6325234634487</v>
       </c>
       <c r="C68">
-        <v>49.75411931489962</v>
+        <v>50.1070890795887</v>
       </c>
       <c r="D68">
-        <v>52.23832186231594</v>
+        <v>53.39678659936266</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1346,13 +1346,13 @@
         <v>0.007555555555555565</v>
       </c>
       <c r="B69">
-        <v>-103.7732074637043</v>
+        <v>-105.2690292065899</v>
       </c>
       <c r="C69">
-        <v>52.22429779396459</v>
+        <v>53.40294557522051</v>
       </c>
       <c r="D69">
-        <v>49.87612274192269</v>
+        <v>50.20910955479463</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1360,13 +1360,13 @@
         <v>0.007666666666666677</v>
       </c>
       <c r="B70">
-        <v>-100.7467069136847</v>
+        <v>-103.226847665062</v>
       </c>
       <c r="C70">
-        <v>54.78953101675798</v>
+        <v>56.50225274105997</v>
       </c>
       <c r="D70">
-        <v>45.89885154646117</v>
+        <v>46.70265041900878</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1374,13 +1374,13 @@
         <v>0.007777777777777788</v>
       </c>
       <c r="B71">
-        <v>-98.44769504406256</v>
+        <v>-103.0800956339667</v>
       </c>
       <c r="C71">
-        <v>62.25770844235306</v>
+        <v>64.00010236325873</v>
       </c>
       <c r="D71">
-        <v>42.56091109218124</v>
+        <v>44.71685070348897</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1388,13 +1388,13 @@
         <v>0.007888888888888898</v>
       </c>
       <c r="B72">
-        <v>-95.80756205973044</v>
+        <v>-96.77354690764238</v>
       </c>
       <c r="C72">
-        <v>74.93135709668304</v>
+        <v>75.36938432558891</v>
       </c>
       <c r="D72">
-        <v>33.79635593364993</v>
+        <v>33.70608338363092</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1402,13 +1402,13 @@
         <v>0.008000000000000009</v>
       </c>
       <c r="B73">
-        <v>-99.05107091471481</v>
+        <v>-100.7814479982419</v>
       </c>
       <c r="C73">
-        <v>86.4568644903472</v>
+        <v>88.78610018451589</v>
       </c>
       <c r="D73">
-        <v>18.89968523678242</v>
+        <v>18.52927470468897</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1416,13 +1416,13 @@
         <v>0.008111111111111119</v>
       </c>
       <c r="B74">
-        <v>-102.6885977170731</v>
+        <v>-106.9139153236206</v>
       </c>
       <c r="C74">
-        <v>94.23202769478588</v>
+        <v>97.94389597610336</v>
       </c>
       <c r="D74">
-        <v>6.346502963904182</v>
+        <v>6.172139418406386</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1430,13 +1430,13 @@
         <v>0.00822222222222223</v>
       </c>
       <c r="B75">
-        <v>-103.4091181584009</v>
+        <v>-106.1641336277856</v>
       </c>
       <c r="C75">
-        <v>98.52582677490938</v>
+        <v>99.60246404502782</v>
       </c>
       <c r="D75">
-        <v>1.133527011161789</v>
+        <v>1.526724889064912</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1444,13 +1444,13 @@
         <v>0.00833333333333334</v>
       </c>
       <c r="B76">
-        <v>-103.3361608144482</v>
+        <v>-104.9140835889168</v>
       </c>
       <c r="C76">
-        <v>103.5255342988485</v>
+        <v>104.8175061988842</v>
       </c>
       <c r="D76">
-        <v>-0.03768744808255176</v>
+        <v>-0.0316821562062336</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1458,13 +1458,13 @@
         <v>0.008444444444444451</v>
       </c>
       <c r="B77">
-        <v>-98.5318402986175</v>
+        <v>-98.95748701095174</v>
       </c>
       <c r="C77">
-        <v>103.6076371558636</v>
+        <v>105.5782645228267</v>
       </c>
       <c r="D77">
-        <v>-1.131707135758164</v>
+        <v>-1.407653509151452</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1472,13 +1472,13 @@
         <v>0.008555555555555561</v>
       </c>
       <c r="B78">
-        <v>-93.94282945671846</v>
+        <v>-96.35082401182673</v>
       </c>
       <c r="C78">
-        <v>102.4641455968152</v>
+        <v>106.4932093215671</v>
       </c>
       <c r="D78">
-        <v>-6.214875504697681</v>
+        <v>-6.022394860115895</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1486,13 +1486,13 @@
         <v>0.008666666666666671</v>
       </c>
       <c r="B79">
-        <v>-86.43996633269154</v>
+        <v>-90.71726485232224</v>
       </c>
       <c r="C79">
-        <v>98.70313976591869</v>
+        <v>102.5046386118419</v>
       </c>
       <c r="D79">
-        <v>-18.60197922889423</v>
+        <v>-18.52318739569918</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1500,13 +1500,13 @@
         <v>0.008777777777777782</v>
       </c>
       <c r="B80">
-        <v>-74.93402467378839</v>
+        <v>-74.60381558401328</v>
       </c>
       <c r="C80">
-        <v>95.43107916173977</v>
+        <v>96.34737756431997</v>
       </c>
       <c r="D80">
-        <v>-33.63004712715142</v>
+        <v>-33.63848949241917</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1514,13 +1514,13 @@
         <v>0.008888888888888892</v>
       </c>
       <c r="B81">
-        <v>-62.34628318017213</v>
+        <v>-63.41835838906504</v>
       </c>
       <c r="C81">
-        <v>98.00177718426815</v>
+        <v>101.8249114498774</v>
       </c>
       <c r="D81">
-        <v>-42.45084164909024</v>
+        <v>-44.18053253073296</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1528,13 +1528,13 @@
         <v>0.009000000000000003</v>
       </c>
       <c r="B82">
-        <v>-54.84855356110047</v>
+        <v>-56.68385734741253</v>
       </c>
       <c r="C82">
-        <v>100.5431916642531</v>
+        <v>103.652064729107</v>
       </c>
       <c r="D82">
-        <v>-45.9170736999393</v>
+        <v>-47.16461623829777</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1542,13 +1542,13 @@
         <v>0.009111111111111113</v>
       </c>
       <c r="B83">
-        <v>-52.20726995204811</v>
+        <v>-53.42209461646673</v>
       </c>
       <c r="C83">
-        <v>103.6448851090161</v>
+        <v>104.6042545782227</v>
       </c>
       <c r="D83">
-        <v>-49.78314942437692</v>
+        <v>-50.01217209676063</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1556,13 +1556,13 @@
         <v>0.009222222222222224</v>
       </c>
       <c r="B84">
-        <v>-49.91242740564022</v>
+        <v>-50.44224163656907</v>
       </c>
       <c r="C84">
-        <v>103.9375070730886</v>
+        <v>105.062978911847</v>
       </c>
       <c r="D84">
-        <v>-52.32481370123315</v>
+        <v>-53.33138434782544</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1570,13 +1570,13 @@
         <v>0.009333333333333334</v>
       </c>
       <c r="B85">
-        <v>-45.89019177724246</v>
+        <v>-46.77208348235824</v>
       </c>
       <c r="C85">
-        <v>100.5661755257404</v>
+        <v>103.0488483896726</v>
       </c>
       <c r="D85">
-        <v>-54.75180751282937</v>
+        <v>-56.49156955632312</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1584,13 +1584,13 @@
         <v>0.009444444444444445</v>
       </c>
       <c r="B86">
-        <v>-42.55110728878589</v>
+        <v>-44.76039929550771</v>
       </c>
       <c r="C86">
-        <v>98.23480260247318</v>
+        <v>103.4997940588994</v>
       </c>
       <c r="D86">
-        <v>-62.21827880509509</v>
+        <v>-64.29532591181217</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1598,13 +1598,13 @@
         <v>0.009555555555555555</v>
       </c>
       <c r="B87">
-        <v>-33.82051916380918</v>
+        <v>-33.44578810366573</v>
       </c>
       <c r="C87">
-        <v>95.58199001724502</v>
+        <v>97.11711419770131</v>
       </c>
       <c r="D87">
-        <v>-74.92041790562206</v>
+        <v>-75.6539911834416</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1612,13 +1612,13 @@
         <v>0.009666666666666665</v>
       </c>
       <c r="B88">
-        <v>-18.98634993597398</v>
+        <v>-18.41091967493449</v>
       </c>
       <c r="C88">
-        <v>98.68103552296773</v>
+        <v>100.9355864275845</v>
       </c>
       <c r="D88">
-        <v>-86.46310929626046</v>
+        <v>-88.92220243846621</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1626,13 +1626,13 @@
         <v>0.009777777777777776</v>
       </c>
       <c r="B89">
-        <v>-6.436863706960949</v>
+        <v>-6.15745823559298</v>
       </c>
       <c r="C89">
-        <v>102.5628999272545</v>
+        <v>106.8685077311976</v>
       </c>
       <c r="D89">
-        <v>-94.3384267309937</v>
+        <v>-97.87705950008635</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1640,13 +1640,13 @@
         <v>0.009888888888888886</v>
       </c>
       <c r="B90">
-        <v>-1.200207347505283</v>
+        <v>-1.54865182316416</v>
       </c>
       <c r="C90">
-        <v>103.5723517667263</v>
+        <v>105.6425481573372</v>
       </c>
       <c r="D90">
-        <v>-98.76897336387771</v>
+        <v>-99.04798519356835</v>
       </c>
     </row>
   </sheetData>

--- a/BEMFSimulation/ExcelResults/PhaseVoltage1500.xlsx
+++ b/BEMFSimulation/ExcelResults/PhaseVoltage1500.xlsx
@@ -408,13 +408,13 @@
         <v>0.0001111111111111111</v>
       </c>
       <c r="B2">
-        <v>1.540673033116752</v>
+        <v>1.161236242748984</v>
       </c>
       <c r="C2">
-        <v>99.99914702352901</v>
+        <v>101.0523461014057</v>
       </c>
       <c r="D2">
-        <v>-106.3716755732268</v>
+        <v>-106.4665801397712</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -422,13 +422,13 @@
         <v>0.0002222222222222222</v>
       </c>
       <c r="B3">
-        <v>6.288607388656788</v>
+        <v>6.44713091109042</v>
       </c>
       <c r="C3">
-        <v>96.61015024619107</v>
+        <v>96.57069681599344</v>
       </c>
       <c r="D3">
-        <v>-106.4244422346616</v>
+        <v>-105.3477435427879</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -436,13 +436,13 @@
         <v>0.0003333333333333334</v>
       </c>
       <c r="B4">
-        <v>18.60570398110981</v>
+        <v>19.18455362842804</v>
       </c>
       <c r="C4">
-        <v>90.46077302178163</v>
+        <v>88.69973006160117</v>
       </c>
       <c r="D4">
-        <v>-102.1025134259365</v>
+        <v>-101.1385702097779</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -450,13 +450,13 @@
         <v>0.0004444444444444445</v>
       </c>
       <c r="B5">
-        <v>33.90812196206704</v>
+        <v>34.46035029213132</v>
       </c>
       <c r="C5">
-        <v>74.40196815138425</v>
+        <v>76.72946609492692</v>
       </c>
       <c r="D5">
-        <v>-96.10526568841627</v>
+        <v>-97.50472408508757</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -464,13 +464,13 @@
         <v>0.0005555555555555556</v>
       </c>
       <c r="B6">
-        <v>44.29624711608911</v>
+        <v>43.51520698820638</v>
       </c>
       <c r="C6">
-        <v>63.48766376161385</v>
+        <v>63.89640734392923</v>
       </c>
       <c r="D6">
-        <v>-101.6234726775015</v>
+        <v>-100.338689089882</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -478,13 +478,13 @@
         <v>0.0006666666666666666</v>
       </c>
       <c r="B7">
-        <v>47.0514715432601</v>
+        <v>46.97946014729511</v>
       </c>
       <c r="C7">
-        <v>56.73193381580572</v>
+        <v>56.09294225576878</v>
       </c>
       <c r="D7">
-        <v>-103.6079677475429</v>
+        <v>-102.6584244422351</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -492,13 +492,13 @@
         <v>0.0007777777777777777</v>
       </c>
       <c r="B8">
-        <v>49.80429629814667</v>
+        <v>51.12117080738408</v>
       </c>
       <c r="C8">
-        <v>53.42504490483596</v>
+        <v>53.64503551491893</v>
       </c>
       <c r="D8">
-        <v>-104.6250912835825</v>
+        <v>-106.4606952658796</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -506,13 +506,13 @@
         <v>0.0008888888888888888</v>
       </c>
       <c r="B9">
-        <v>53.1004279623054</v>
+        <v>53.55605966041913</v>
       </c>
       <c r="C9">
-        <v>50.32102764325079</v>
+        <v>51.17428706138238</v>
       </c>
       <c r="D9">
-        <v>-104.8294804805452</v>
+        <v>-106.5884224172291</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -520,13 +520,13 @@
         <v>0.001</v>
       </c>
       <c r="B10">
-        <v>56.50156409510346</v>
+        <v>56.1393969764827</v>
       </c>
       <c r="C10">
-        <v>46.67411171605275</v>
+        <v>47.0655044007761</v>
       </c>
       <c r="D10">
-        <v>-102.8466533417951</v>
+        <v>-103.1470586616028</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -534,13 +534,13 @@
         <v>0.001111111111111111</v>
       </c>
       <c r="B11">
-        <v>64.31035847348804</v>
+        <v>63.85579513241758</v>
       </c>
       <c r="C11">
-        <v>44.58088896137038</v>
+        <v>43.67721664437836</v>
       </c>
       <c r="D11">
-        <v>-103.1906953743686</v>
+        <v>-100.819342514303</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -548,13 +548,13 @@
         <v>0.001222222222222222</v>
       </c>
       <c r="B12">
-        <v>75.59770616996954</v>
+        <v>76.78168428543957</v>
       </c>
       <c r="C12">
-        <v>33.30319434487549</v>
+        <v>34.55275228068135</v>
       </c>
       <c r="D12">
-        <v>-97.2662967843584</v>
+        <v>-97.85772989330371</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -562,13 +562,13 @@
         <v>0.001333333333333333</v>
       </c>
       <c r="B13">
-        <v>88.52524886186215</v>
+        <v>88.38434831216276</v>
       </c>
       <c r="C13">
-        <v>18.43280033536156</v>
+        <v>19.39901540329241</v>
       </c>
       <c r="D13">
-        <v>-100.7188476356042</v>
+        <v>-101.112671516562</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -576,13 +576,13 @@
         <v>0.001444444444444444</v>
       </c>
       <c r="B14">
-        <v>97.71939325013999</v>
+        <v>96.459995560569</v>
       </c>
       <c r="C14">
-        <v>6.338087508598114</v>
+        <v>6.58638511791071</v>
       </c>
       <c r="D14">
-        <v>-106.3069503239443</v>
+        <v>-105.0730638451132</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -590,13 +590,13 @@
         <v>0.001555555555555555</v>
       </c>
       <c r="B15">
-        <v>99.45668538397439</v>
+        <v>100.9355222602296</v>
       </c>
       <c r="C15">
-        <v>1.680339512290171</v>
+        <v>1.220528356684278</v>
       </c>
       <c r="D15">
-        <v>-105.6018472045771</v>
+        <v>-106.0321323129504</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -604,13 +604,13 @@
         <v>0.001666666666666667</v>
       </c>
       <c r="B16">
-        <v>104.9074242523733</v>
+        <v>106.4011004165226</v>
       </c>
       <c r="C16">
-        <v>0.0291073579403861</v>
+        <v>-0.01906837603878053</v>
       </c>
       <c r="D16">
-        <v>-105.2653484487462</v>
+        <v>-106.3173200286672</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -618,13 +618,13 @@
         <v>0.001777777777777778</v>
       </c>
       <c r="B17">
-        <v>105.8009731152228</v>
+        <v>106.1522281809378</v>
       </c>
       <c r="C17">
-        <v>-1.476856663208889</v>
+        <v>-1.152493614386269</v>
       </c>
       <c r="D17">
-        <v>-100.0177784904426</v>
+        <v>-101.003084174055</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -632,13 +632,13 @@
         <v>0.001888888888888889</v>
       </c>
       <c r="B18">
-        <v>106.5859475202925</v>
+        <v>105.1099937387794</v>
       </c>
       <c r="C18">
-        <v>-6.129763571253652</v>
+        <v>-6.373787543864431</v>
       </c>
       <c r="D18">
-        <v>-96.83316295093503</v>
+        <v>-96.55940939435045</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -646,13 +646,13 @@
         <v>0.002</v>
       </c>
       <c r="B19">
-        <v>102.6850626497418</v>
+        <v>101.4170406030512</v>
       </c>
       <c r="C19">
-        <v>-18.50939842690198</v>
+        <v>-19.09639102945511</v>
       </c>
       <c r="D19">
-        <v>-90.41976185021936</v>
+        <v>-88.88622995324336</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -660,13 +660,13 @@
         <v>0.002111111111111111</v>
       </c>
       <c r="B20">
-        <v>96.86683828444311</v>
+        <v>97.90538009095582</v>
       </c>
       <c r="C20">
-        <v>-33.5744334364782</v>
+        <v>-34.49207329596471</v>
       </c>
       <c r="D20">
-        <v>-74.49365953761354</v>
+        <v>-76.79885159517605</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -674,13 +674,13 @@
         <v>0.002222222222222223</v>
       </c>
       <c r="B21">
-        <v>102.2210977956698</v>
+        <v>100.6015727720079</v>
       </c>
       <c r="C21">
-        <v>-44.22068372634959</v>
+        <v>-43.57067979931621</v>
       </c>
       <c r="D21">
-        <v>-63.7795165908632</v>
+        <v>-63.90172017664362</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -688,13 +688,13 @@
         <v>0.002333333333333334</v>
       </c>
       <c r="B22">
-        <v>103.5647440562672</v>
+        <v>102.8639837581054</v>
       </c>
       <c r="C22">
-        <v>-47.11578354820264</v>
+        <v>-46.9497672976775</v>
       </c>
       <c r="D22">
-        <v>-56.9873167079394</v>
+        <v>-56.16506981162714</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -702,13 +702,13 @@
         <v>0.002444444444444445</v>
       </c>
       <c r="B23">
-        <v>104.6281383475052</v>
+        <v>106.4875507601066</v>
       </c>
       <c r="C23">
-        <v>-50.10113115919916</v>
+        <v>-51.14112299288286</v>
       </c>
       <c r="D23">
-        <v>-53.39966421920444</v>
+        <v>-53.6906134311936</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -716,13 +716,13 @@
         <v>0.002555555555555557</v>
       </c>
       <c r="B24">
-        <v>105.2722552728701</v>
+        <v>106.4577914828917</v>
       </c>
       <c r="C24">
-        <v>-53.39987465038504</v>
+        <v>-53.58184043956271</v>
       </c>
       <c r="D24">
-        <v>-50.21564256893096</v>
+        <v>-51.111332701761</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -730,13 +730,13 @@
         <v>0.002666666666666668</v>
       </c>
       <c r="B25">
-        <v>103.229017835408</v>
+        <v>103.267115077962</v>
       </c>
       <c r="C25">
-        <v>-56.4952332604967</v>
+        <v>-56.21744509389106</v>
       </c>
       <c r="D25">
-        <v>-46.70690872519562</v>
+        <v>-47.00319729729404</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -744,13 +744,13 @@
         <v>0.002777777777777779</v>
       </c>
       <c r="B26">
-        <v>103.0832660086811</v>
+        <v>101.0700791952422</v>
       </c>
       <c r="C26">
-        <v>-63.98543137440913</v>
+        <v>-63.89728153461615</v>
       </c>
       <c r="D26">
-        <v>-44.72320772778198</v>
+        <v>-43.6939488082632</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -758,13 +758,13 @@
         <v>0.00288888888888889</v>
       </c>
       <c r="B27">
-        <v>96.78032964261668</v>
+        <v>98.23061577263321</v>
       </c>
       <c r="C27">
-        <v>-75.353051504745</v>
+        <v>-76.80610624848767</v>
       </c>
       <c r="D27">
-        <v>-33.72649903621252</v>
+        <v>-34.60144789090923</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -772,13 +772,13 @@
         <v>0.003000000000000002</v>
       </c>
       <c r="B28">
-        <v>100.7684465515455</v>
+        <v>101.5620622419793</v>
       </c>
       <c r="C28">
-        <v>-88.76635790753166</v>
+        <v>-88.57485302911029</v>
       </c>
       <c r="D28">
-        <v>-18.552049713303</v>
+        <v>-19.36344796378817</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -786,13 +786,13 @@
         <v>0.003111111111111113</v>
       </c>
       <c r="B29">
-        <v>106.9112901321975</v>
+        <v>105.2555759708585</v>
       </c>
       <c r="C29">
-        <v>-97.93925176268453</v>
+        <v>-96.61241306688595</v>
       </c>
       <c r="D29">
-        <v>-6.183527260481964</v>
+        <v>-6.507165628964264</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -800,13 +800,13 @@
         <v>0.003222222222222224</v>
       </c>
       <c r="B30">
-        <v>106.165927710495</v>
+        <v>106.0431193679928</v>
       </c>
       <c r="C30">
-        <v>-99.59685021224699</v>
+        <v>-101.0307107311818</v>
       </c>
       <c r="D30">
-        <v>-1.530640593090521</v>
+        <v>-1.173323992210776</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -814,13 +814,13 @@
         <v>0.003333333333333336</v>
       </c>
       <c r="B31">
-        <v>104.91935966124</v>
+        <v>106.2333252352464</v>
       </c>
       <c r="C31">
-        <v>-104.8118469243036</v>
+        <v>-106.3388677571935</v>
       </c>
       <c r="D31">
-        <v>0.03071808021178069</v>
+        <v>0.0400837262261311</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -828,13 +828,13 @@
         <v>0.003444444444444447</v>
       </c>
       <c r="B32">
-        <v>98.96512299847559</v>
+        <v>100.8421209234659</v>
       </c>
       <c r="C32">
-        <v>-105.578192823792</v>
+        <v>-106.1155037791344</v>
       </c>
       <c r="D32">
-        <v>1.40411315986376</v>
+        <v>1.17416982287212</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -842,13 +842,13 @@
         <v>0.003555555555555558</v>
       </c>
       <c r="B33">
-        <v>96.35005669670332</v>
+        <v>96.34936361992932</v>
       </c>
       <c r="C33">
-        <v>-106.4921630768713</v>
+        <v>-105.1204605108571</v>
       </c>
       <c r="D33">
-        <v>6.011147545694414</v>
+        <v>6.404904307105927</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -856,13 +856,13 @@
         <v>0.00366666666666667</v>
       </c>
       <c r="B34">
-        <v>90.73961597450115</v>
+        <v>88.72746817866462</v>
       </c>
       <c r="C34">
-        <v>-102.5171746866704</v>
+        <v>-101.3680354372255</v>
       </c>
       <c r="D34">
-        <v>18.49976632945442</v>
+        <v>19.06254686827258</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -870,13 +870,13 @@
         <v>0.003777777777777781</v>
       </c>
       <c r="B35">
-        <v>74.62294255784803</v>
+        <v>76.78432818364098</v>
       </c>
       <c r="C35">
-        <v>-96.3463492511283</v>
+        <v>-97.81541817971167</v>
       </c>
       <c r="D35">
-        <v>33.61933668746819</v>
+        <v>34.42463412639242</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -884,13 +884,13 @@
         <v>0.003888888888888892</v>
       </c>
       <c r="B36">
-        <v>63.43077049559157</v>
+        <v>63.93588044423387</v>
       </c>
       <c r="C36">
-        <v>-101.8154592145797</v>
+        <v>-100.4828439462404</v>
       </c>
       <c r="D36">
-        <v>44.16994187393393</v>
+        <v>43.52846588236252</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -898,13 +898,13 @@
         <v>0.004000000000000004</v>
       </c>
       <c r="B37">
-        <v>56.69141530306155</v>
+        <v>56.14709546684874</v>
       </c>
       <c r="C37">
-        <v>-103.6545376534927</v>
+        <v>-102.9070073083345</v>
       </c>
       <c r="D37">
-        <v>47.16379504532333</v>
+        <v>46.98717458126278</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -912,13 +912,13 @@
         <v>0.004111111111111115</v>
       </c>
       <c r="B38">
-        <v>53.42410686976197</v>
+        <v>53.64471361794132</v>
       </c>
       <c r="C38">
-        <v>-104.5997184280147</v>
+        <v>-106.5297135705298</v>
       </c>
       <c r="D38">
-        <v>50.0060147275632</v>
+        <v>51.15802907073009</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -926,13 +926,13 @@
         <v>0.004222222222222226</v>
       </c>
       <c r="B39">
-        <v>50.44878937132617</v>
+        <v>51.18655653690588</v>
       </c>
       <c r="C39">
-        <v>-105.0665557124645</v>
+        <v>-106.6105290702599</v>
       </c>
       <c r="D39">
-        <v>53.32839965274498</v>
+        <v>53.64808224259617</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -940,13 +940,13 @@
         <v>0.004333333333333337</v>
       </c>
       <c r="B40">
-        <v>46.77653741723041</v>
+        <v>47.00991836173694</v>
       </c>
       <c r="C40">
-        <v>-103.0503674677787</v>
+        <v>-103.0273898212554</v>
       </c>
       <c r="D40">
-        <v>56.48417953465248</v>
+        <v>56.14225984935543</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -954,13 +954,13 @@
         <v>0.004444444444444449</v>
       </c>
       <c r="B41">
-        <v>44.76710030678753</v>
+        <v>43.67832154162247</v>
       </c>
       <c r="C41">
-        <v>-103.5028346031465</v>
+        <v>-100.8470383334415</v>
       </c>
       <c r="D41">
-        <v>64.28070744169089</v>
+        <v>63.85721355237177</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -968,13 +968,13 @@
         <v>0.00455555555555556</v>
       </c>
       <c r="B42">
-        <v>33.46623363850443</v>
+        <v>34.59930889402503</v>
       </c>
       <c r="C42">
-        <v>-97.12310701530305</v>
+        <v>-98.01185083485078</v>
       </c>
       <c r="D42">
-        <v>75.63700195466032</v>
+        <v>76.83287997229858</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -982,13 +982,13 @@
         <v>0.004666666666666671</v>
       </c>
       <c r="B43">
-        <v>18.43349792537106</v>
+        <v>19.45789438977129</v>
       </c>
       <c r="C43">
-        <v>-100.9233121870589</v>
+        <v>-101.2014152241313</v>
       </c>
       <c r="D43">
-        <v>88.90298383042747</v>
+        <v>88.58869784422443</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -996,13 +996,13 @@
         <v>0.004777777777777783</v>
       </c>
       <c r="B44">
-        <v>6.168930346796276</v>
+        <v>6.611018329375703</v>
       </c>
       <c r="C44">
-        <v>-106.8665708504016</v>
+        <v>-105.0928653304937</v>
       </c>
       <c r="D44">
-        <v>97.8735150604073</v>
+        <v>96.68347016612159</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1010,13 +1010,13 @@
         <v>0.004888888888888894</v>
       </c>
       <c r="B45">
-        <v>1.552182201846053</v>
+        <v>1.228375243285188</v>
       </c>
       <c r="C45">
-        <v>-105.6436460660857</v>
+        <v>-106.1428714510902</v>
       </c>
       <c r="D45">
-        <v>99.04106552336641</v>
+        <v>101.2409270745486</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1024,13 +1024,13 @@
         <v>0.005000000000000005</v>
       </c>
       <c r="B46">
-        <v>0.1016326866313394</v>
+        <v>-0.005596453054729222</v>
       </c>
       <c r="C46">
-        <v>-105.4993440500417</v>
+        <v>-106.5092306866728</v>
       </c>
       <c r="D46">
-        <v>105.527161209681</v>
+        <v>106.7157565068131</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1038,13 +1038,13 @@
         <v>0.005111111111111117</v>
       </c>
       <c r="B47">
-        <v>-1.544839104753171</v>
+        <v>-1.165146939122383</v>
       </c>
       <c r="C47">
-        <v>-99.99251420913784</v>
+        <v>-101.0433614463509</v>
       </c>
       <c r="D47">
-        <v>106.3717268800458</v>
+        <v>106.4648634948054</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1052,13 +1052,13 @@
         <v>0.005222222222222228</v>
       </c>
       <c r="B48">
-        <v>-6.300166503839313</v>
+        <v>-6.459148347882568</v>
       </c>
       <c r="C48">
-        <v>-96.60976278210786</v>
+        <v>-96.56492226030794</v>
       </c>
       <c r="D48">
-        <v>106.4246659732711</v>
+        <v>105.3450921303534</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1066,13 +1066,13 @@
         <v>0.005333333333333339</v>
       </c>
       <c r="B49">
-        <v>-18.62885247464578</v>
+        <v>-19.20845805268932</v>
       </c>
       <c r="C49">
-        <v>-90.43733142054047</v>
+        <v>-88.68352826387503</v>
       </c>
       <c r="D49">
-        <v>102.0891596151982</v>
+        <v>101.1303338127698</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1080,13 +1080,13 @@
         <v>0.005444444444444451</v>
       </c>
       <c r="B50">
-        <v>-33.9270861578058</v>
+        <v>-34.47783590232962</v>
       </c>
       <c r="C50">
-        <v>-74.38372556161212</v>
+        <v>-76.7109227104698</v>
       </c>
       <c r="D50">
-        <v>96.1070017377773</v>
+        <v>97.50476104489925</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1094,13 +1094,13 @@
         <v>0.005555555555555562</v>
       </c>
       <c r="B51">
-        <v>-44.3061231699151</v>
+        <v>-43.52349739469935</v>
       </c>
       <c r="C51">
-        <v>-63.47456496292126</v>
+        <v>-63.88026191134752</v>
       </c>
       <c r="D51">
-        <v>101.6319965687341</v>
+        <v>100.3435384711899</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1108,13 +1108,13 @@
         <v>0.005666666666666673</v>
       </c>
       <c r="B52">
-        <v>-47.05209860865825</v>
+        <v>-46.98424029129115</v>
       </c>
       <c r="C52">
-        <v>-56.7247669347852</v>
+        <v>-56.08672842029031</v>
       </c>
       <c r="D52">
-        <v>103.6063176192949</v>
+        <v>102.6624784891969</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1122,13 +1122,13 @@
         <v>0.005777777777777784</v>
       </c>
       <c r="B53">
-        <v>-49.81072296058035</v>
+        <v>-51.12684211778767</v>
       </c>
       <c r="C53">
-        <v>-53.4229379225544</v>
+        <v>-53.6431383272197</v>
       </c>
       <c r="D53">
-        <v>104.6295854892641</v>
+        <v>106.4658017812033</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1136,13 +1136,13 @@
         <v>0.005888888888888896</v>
       </c>
       <c r="B54">
-        <v>-53.10365362037876</v>
+        <v>-53.55788073549299</v>
       </c>
       <c r="C54">
-        <v>-50.31448875144486</v>
+        <v>-51.16822426301216</v>
       </c>
       <c r="D54">
-        <v>104.8260892150343</v>
+        <v>106.5835952022582</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1150,13 +1150,13 @@
         <v>0.006000000000000007</v>
       </c>
       <c r="B55">
-        <v>-56.50918381122174</v>
+        <v>-56.14645741092106</v>
       </c>
       <c r="C55">
-        <v>-46.6695779696965</v>
+        <v>-47.06125045094746</v>
       </c>
       <c r="D55">
-        <v>102.84468308308</v>
+        <v>103.1437546757842</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1164,13 +1164,13 @@
         <v>0.006111111111111118</v>
       </c>
       <c r="B56">
-        <v>-64.3248562364665</v>
+        <v>-63.87092321408099</v>
       </c>
       <c r="C56">
-        <v>-44.57388261029212</v>
+        <v>-43.66848603231069</v>
       </c>
       <c r="D56">
-        <v>103.1878458229801</v>
+        <v>100.8138224982696</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1178,13 +1178,13 @@
         <v>0.00622222222222223</v>
       </c>
       <c r="B57">
-        <v>-75.61406531981744</v>
+        <v>-76.80084023641939</v>
       </c>
       <c r="C57">
-        <v>-33.28299697102501</v>
+        <v>-34.53550083204776</v>
       </c>
       <c r="D57">
-        <v>97.26044736293316</v>
+        <v>97.85761526914739</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1192,13 +1192,13 @@
         <v>0.006333333333333341</v>
       </c>
       <c r="B58">
-        <v>-88.54453105821197</v>
+        <v>-88.39990228196633</v>
       </c>
       <c r="C58">
-        <v>-18.41074021075744</v>
+        <v>-19.37527046856791</v>
       </c>
       <c r="D58">
-        <v>100.7303218338204</v>
+        <v>101.1205003434019</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1206,13 +1206,13 @@
         <v>0.006444444444444452</v>
       </c>
       <c r="B59">
-        <v>-97.72409673998811</v>
+        <v>-96.46624607182498</v>
       </c>
       <c r="C59">
-        <v>-6.326706145505928</v>
+        <v>-6.574105780474682</v>
       </c>
       <c r="D59">
-        <v>106.3094308054422</v>
+        <v>105.0755078567723</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1220,13 +1220,13 @@
         <v>0.006555555555555564</v>
       </c>
       <c r="B60">
-        <v>-99.46277993679898</v>
+        <v>-100.9448941150332</v>
       </c>
       <c r="C60">
-        <v>-1.676335351178323</v>
+        <v>-1.216448124912034</v>
       </c>
       <c r="D60">
-        <v>105.6009586372128</v>
+        <v>106.034043994557</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1234,13 +1234,13 @@
         <v>0.006666666666666675</v>
       </c>
       <c r="B61">
-        <v>-104.912947463259</v>
+        <v>-106.4047350622194</v>
       </c>
       <c r="C61">
-        <v>-0.02806852777995084</v>
+        <v>0.01943511067144243</v>
       </c>
       <c r="D61">
-        <v>105.2607054324276</v>
+        <v>106.313870649801</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1248,13 +1248,13 @@
         <v>0.006777777777777786</v>
       </c>
       <c r="B62">
-        <v>-105.8010188935903</v>
+        <v>-106.1497073957958</v>
       </c>
       <c r="C62">
-        <v>1.480560111796897</v>
+        <v>1.156210232253485</v>
       </c>
       <c r="D62">
-        <v>100.010741670555</v>
+        <v>100.9935691473733</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1262,13 +1262,13 @@
         <v>0.006888888888888898</v>
       </c>
       <c r="B63">
-        <v>-106.587757398056</v>
+        <v>-105.1081331777292</v>
       </c>
       <c r="C63">
-        <v>6.141423316086622</v>
+        <v>6.38593654356423</v>
       </c>
       <c r="D63">
-        <v>96.83339734550285</v>
+        <v>96.5540269628969</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1276,13 +1276,13 @@
         <v>0.007000000000000009</v>
       </c>
       <c r="B64">
-        <v>-102.671902725246</v>
+        <v>-101.4094036348338</v>
       </c>
       <c r="C64">
-        <v>18.53245062903894</v>
+        <v>19.12038793368716</v>
       </c>
       <c r="D64">
-        <v>90.39578896304586</v>
+        <v>88.87010506993745</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1290,13 +1290,13 @@
         <v>0.00711111111111112</v>
       </c>
       <c r="B65">
-        <v>-96.86845946027424</v>
+        <v>-97.9050472027532</v>
       </c>
       <c r="C65">
-        <v>33.59341886739184</v>
+        <v>34.50962783894229</v>
       </c>
       <c r="D65">
-        <v>74.47553743486782</v>
+        <v>76.77985187134681</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1304,13 +1304,13 @@
         <v>0.007222222222222231</v>
       </c>
       <c r="B66">
-        <v>-102.2295835925674</v>
+        <v>-100.6074144015834</v>
       </c>
       <c r="C66">
-        <v>44.2310778302172</v>
+        <v>43.57945351853507</v>
       </c>
       <c r="D66">
-        <v>63.76732420270141</v>
+        <v>63.88657158823433</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1318,13 +1318,13 @@
         <v>0.007333333333333343</v>
       </c>
       <c r="B67">
-        <v>-103.5627279387515</v>
+        <v>-102.8664463660175</v>
       </c>
       <c r="C67">
-        <v>47.11706860780263</v>
+        <v>46.95357755653093</v>
       </c>
       <c r="D67">
-        <v>56.97991220723286</v>
+        <v>56.15763572991546</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1332,13 +1332,13 @@
         <v>0.007444444444444454</v>
       </c>
       <c r="B68">
-        <v>-104.6325234634487</v>
+        <v>-106.4925637122611</v>
       </c>
       <c r="C68">
-        <v>50.1070890795887</v>
+        <v>51.14711717219826</v>
       </c>
       <c r="D68">
-        <v>53.39678659936266</v>
+        <v>53.68899019957075</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1346,13 +1346,13 @@
         <v>0.007555555555555565</v>
       </c>
       <c r="B69">
-        <v>-105.2690292065899</v>
+        <v>-106.4530848083512</v>
       </c>
       <c r="C69">
-        <v>53.40294557522051</v>
+        <v>53.58373359772919</v>
       </c>
       <c r="D69">
-        <v>50.20910955479463</v>
+        <v>51.1050965720538</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1360,13 +1360,13 @@
         <v>0.007666666666666677</v>
       </c>
       <c r="B70">
-        <v>-103.226847665062</v>
+        <v>-103.2644459867606</v>
       </c>
       <c r="C70">
-        <v>56.50225274105997</v>
+        <v>56.22472227495942</v>
       </c>
       <c r="D70">
-        <v>46.70265041900878</v>
+        <v>46.99924875413826</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1374,13 +1374,13 @@
         <v>0.007777777777777788</v>
       </c>
       <c r="B71">
-        <v>-103.0800956339667</v>
+        <v>-101.0650550113417</v>
       </c>
       <c r="C71">
-        <v>64.00010236325873</v>
+        <v>63.91269868109645</v>
       </c>
       <c r="D71">
-        <v>44.71685070348897</v>
+        <v>43.68559739543338</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1388,13 +1388,13 @@
         <v>0.007888888888888898</v>
       </c>
       <c r="B72">
-        <v>-96.77354690764238</v>
+        <v>-98.23038000812181</v>
       </c>
       <c r="C72">
-        <v>75.36938432558891</v>
+        <v>76.82504149457169</v>
       </c>
       <c r="D72">
-        <v>33.70608338363092</v>
+        <v>34.58396242002073</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1402,13 +1402,13 @@
         <v>0.008000000000000009</v>
       </c>
       <c r="B73">
-        <v>-100.7814479982419</v>
+        <v>-101.5698643931604</v>
       </c>
       <c r="C73">
-        <v>88.78610018451589</v>
+        <v>88.5906644995224</v>
       </c>
       <c r="D73">
-        <v>18.52927470468897</v>
+        <v>19.33946259103481</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1416,13 +1416,13 @@
         <v>0.008111111111111119</v>
       </c>
       <c r="B74">
-        <v>-106.9139153236206</v>
+        <v>-105.2576451711764</v>
       </c>
       <c r="C74">
-        <v>97.94389597610336</v>
+        <v>96.61863474066598</v>
       </c>
       <c r="D74">
-        <v>6.172139418406386</v>
+        <v>6.495027942094306</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1430,13 +1430,13 @@
         <v>0.00822222222222223</v>
       </c>
       <c r="B75">
-        <v>-106.1641336277856</v>
+        <v>-106.0444145931744</v>
       </c>
       <c r="C75">
-        <v>99.60246404502782</v>
+        <v>101.0393191708391</v>
       </c>
       <c r="D75">
-        <v>1.526724889064912</v>
+        <v>1.169222236961365</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1444,13 +1444,13 @@
         <v>0.00833333333333334</v>
       </c>
       <c r="B76">
-        <v>-104.9140835889168</v>
+        <v>-106.2300948075738</v>
       </c>
       <c r="C76">
-        <v>104.8175061988842</v>
+        <v>106.3428205871029</v>
       </c>
       <c r="D76">
-        <v>-0.0316821562062336</v>
+        <v>-0.04052608808577385</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1458,13 +1458,13 @@
         <v>0.008444444444444451</v>
       </c>
       <c r="B77">
-        <v>-98.95748701095174</v>
+        <v>-100.8331034091977</v>
       </c>
       <c r="C77">
-        <v>105.5782645228267</v>
+        <v>106.1137295321621</v>
       </c>
       <c r="D77">
-        <v>-1.407653509151452</v>
+        <v>-1.178134814064577</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1472,13 +1472,13 @@
         <v>0.008555555555555561</v>
       </c>
       <c r="B78">
-        <v>-96.35082401182673</v>
+        <v>-96.34372471300262</v>
       </c>
       <c r="C78">
-        <v>106.4932093215671</v>
+        <v>105.1183194788876</v>
       </c>
       <c r="D78">
-        <v>-6.022394860115895</v>
+        <v>-6.416849925927545</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1486,13 +1486,13 @@
         <v>0.008666666666666671</v>
       </c>
       <c r="B79">
-        <v>-90.71726485232224</v>
+        <v>-88.71118506043628</v>
       </c>
       <c r="C79">
-        <v>102.5046386118419</v>
+        <v>101.3599785776917</v>
       </c>
       <c r="D79">
-        <v>-18.52318739569918</v>
+        <v>-19.08630021358326</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1500,13 +1500,13 @@
         <v>0.008777777777777782</v>
       </c>
       <c r="B80">
-        <v>-74.60381558401328</v>
+        <v>-76.76517777250619</v>
       </c>
       <c r="C80">
-        <v>96.34737756431997</v>
+        <v>97.81449127500535</v>
       </c>
       <c r="D80">
-        <v>-33.63848949241917</v>
+        <v>-34.44193204376111</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1514,13 +1514,13 @@
         <v>0.008888888888888892</v>
       </c>
       <c r="B81">
-        <v>-63.41835838906504</v>
+        <v>-63.9205198773779</v>
       </c>
       <c r="C81">
-        <v>101.8249114498774</v>
+        <v>100.4886196025723</v>
       </c>
       <c r="D81">
-        <v>-44.18053253073296</v>
+        <v>-43.53735820859808</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1528,13 +1528,13 @@
         <v>0.009000000000000003</v>
       </c>
       <c r="B82">
-        <v>-56.68385734741253</v>
+        <v>-56.14011632298133</v>
       </c>
       <c r="C82">
-        <v>103.652064729107</v>
+        <v>102.9104258939273</v>
       </c>
       <c r="D82">
-        <v>-47.16461623829777</v>
+        <v>-46.99148714850173</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1542,13 +1542,13 @@
         <v>0.009111111111111113</v>
       </c>
       <c r="B83">
-        <v>-53.42209461646673</v>
+        <v>-53.64330726263577</v>
       </c>
       <c r="C83">
-        <v>104.6042545782227</v>
+        <v>106.5349510936556</v>
       </c>
       <c r="D83">
-        <v>-50.01217209676063</v>
+        <v>-51.16424130797055</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1556,13 +1556,13 @@
         <v>0.009222222222222224</v>
       </c>
       <c r="B84">
-        <v>-50.44224163656907</v>
+        <v>-51.18002536221293</v>
       </c>
       <c r="C84">
-        <v>105.062978911847</v>
+        <v>106.6050602960385</v>
       </c>
       <c r="D84">
-        <v>-53.33138434782544</v>
+        <v>-53.64947086782784</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1570,13 +1570,13 @@
         <v>0.009333333333333334</v>
       </c>
       <c r="B85">
-        <v>-46.77208348235824</v>
+        <v>-47.00555908332245</v>
       </c>
       <c r="C85">
-        <v>103.0488483896726</v>
+        <v>103.0239567010598</v>
       </c>
       <c r="D85">
-        <v>-56.49156955632312</v>
+        <v>-56.1489477588252</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1584,13 +1584,13 @@
         <v>0.009444444444444445</v>
       </c>
       <c r="B86">
-        <v>-44.76039929550771</v>
+        <v>-43.67018540615275</v>
       </c>
       <c r="C86">
-        <v>103.4997940588994</v>
+        <v>100.8423551184583</v>
       </c>
       <c r="D86">
-        <v>-64.29532591181217</v>
+        <v>-63.87290334941085</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1598,13 +1598,13 @@
         <v>0.009555555555555555</v>
       </c>
       <c r="B87">
-        <v>-33.44578810366573</v>
+        <v>-34.5818663256612</v>
       </c>
       <c r="C87">
-        <v>97.11711419770131</v>
+        <v>98.01172213065492</v>
       </c>
       <c r="D87">
-        <v>-75.6539911834416</v>
+        <v>-76.85227622474589</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1612,13 +1612,13 @@
         <v>0.009666666666666665</v>
       </c>
       <c r="B88">
-        <v>-18.41091967493449</v>
+        <v>-19.43426044401064</v>
       </c>
       <c r="C88">
-        <v>100.9355864275845</v>
+        <v>101.2092811701144</v>
       </c>
       <c r="D88">
-        <v>-88.92220243846621</v>
+        <v>-88.60453829417033</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1626,13 +1626,13 @@
         <v>0.009777777777777776</v>
       </c>
       <c r="B89">
-        <v>-6.15745823559298</v>
+        <v>-6.598675681231749</v>
       </c>
       <c r="C89">
-        <v>106.8685077311976</v>
+        <v>105.094768593728</v>
       </c>
       <c r="D89">
-        <v>-97.87705950008635</v>
+        <v>-96.68916793514278</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1640,13 +1640,13 @@
         <v>0.009888888888888886</v>
       </c>
       <c r="B90">
-        <v>-1.54865182316416</v>
+        <v>-1.224402108096004</v>
       </c>
       <c r="C90">
-        <v>105.6425481573372</v>
+        <v>106.1451866154486</v>
       </c>
       <c r="D90">
-        <v>-99.04798519356835</v>
+        <v>-101.2505577698425</v>
       </c>
     </row>
   </sheetData>
